--- a/ActiTimeProject/src/test/resources/data/testscript.xlsx
+++ b/ActiTimeProject/src/test/resources/data/testscript.xlsx
@@ -34,9 +34,6 @@
     <t>CreateCustomer</t>
   </si>
   <si>
-    <t>HDFC_001</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>Banking Project</t>
+  </si>
+  <si>
+    <t>SBI_0004</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,7 +530,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,10 +549,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -566,10 +566,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -593,178 +593,178 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
